--- a/Assignment1/estimated_timing.xlsx
+++ b/Assignment1/estimated_timing.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>REG</t>
   </si>
@@ -92,14 +92,32 @@
     <t>SUB</t>
   </si>
   <si>
-    <t>v</t>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>DIV</t>
+  </si>
+  <si>
+    <t>INC</t>
+  </si>
+  <si>
+    <t>MOD</t>
+  </si>
+  <si>
+    <t>Circuit</t>
+  </si>
+  <si>
+    <t>Critical Path Execution Time</t>
+  </si>
+  <si>
+    <t>actual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +129,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -130,7 +156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -206,11 +232,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -225,11 +260,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -240,6 +283,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="I3:O11" totalsRowShown="0">
+  <autoFilter ref="I3:O11"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Circuit"/>
+    <tableColumn id="2" name="2"/>
+    <tableColumn id="3" name="8"/>
+    <tableColumn id="4" name="16"/>
+    <tableColumn id="5" name="32"/>
+    <tableColumn id="6" name="64"/>
+    <tableColumn id="7" name="actual" dataDxfId="0">
+      <calculatedColumnFormula>C5+C5+C6+C8+C7+D10+D4</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -505,26 +566,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N11"/>
+  <dimension ref="A2:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="11" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -543,23 +613,29 @@
       <c r="F3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>8</v>
-      </c>
-      <c r="L3">
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
         <v>16</v>
       </c>
-      <c r="M3">
-        <v>32</v>
-      </c>
-      <c r="N3">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -577,6 +653,13 @@
       </c>
       <c r="F4" s="9">
         <v>4.09</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <f>C5+C5+C6+C8+D7+D10+D4</f>
+        <v>41.497</v>
       </c>
       <c r="I4" t="s">
         <v>6</v>
@@ -601,8 +684,12 @@
         <f>F5+F5+F6+F8+F7+F10+F4</f>
         <v>58.259</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <f t="shared" ref="O4:O11" si="0">C5+C5+C6+C8+C7+D10+D4</f>
+        <v>41.069000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
@@ -621,31 +708,42 @@
       <c r="F5" s="9">
         <v>8.0220000000000002</v>
       </c>
+      <c r="G5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <f>Table1[[#This Row],[32]]</f>
+        <v>68.589999999999989</v>
+      </c>
       <c r="I5" t="s">
         <v>7</v>
       </c>
       <c r="J5">
         <f>B5+B5+B10+B6+B6+B8+B8+B11+B9+B4+B4</f>
-        <v>49.462000000000003</v>
+        <v>54.822999999999993</v>
       </c>
       <c r="K5">
         <f>C5+C5+C10+C6+C6+C8+C8+C11+C9+C4+C4</f>
-        <v>54.734999999999999</v>
+        <v>60.988</v>
       </c>
       <c r="L5">
         <f>D5+D5+D10+D6+D6+D8+D8+D11+D9+D4+D4</f>
-        <v>56.260000000000005</v>
+        <v>63.102000000000004</v>
       </c>
       <c r="M5">
         <f>E5+E5+E10+E6+E6+E8+E8+E11+E9+E4+E4</f>
-        <v>61.545999999999992</v>
+        <v>68.589999999999989</v>
       </c>
       <c r="N5">
-        <f t="shared" ref="L5:N5" si="0">F5+F5+F10+F6+F6+F8+F8+F11+F9+F4+F4</f>
-        <v>65.953999999999994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="N5" si="1">F5+F5+F10+F6+F6+F8+F8+F11+F9+F4+F4</f>
+        <v>73.945000000000007</v>
+      </c>
+      <c r="O5">
+        <f>E5+E5+E10+E6+E6+E8+E8+E11+E9+E4+E4</f>
+        <v>68.589999999999989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
@@ -663,6 +761,13 @@
       </c>
       <c r="F6" s="9">
         <v>7.6390000000000002</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <f>D5+D5+D5+D5+E5+E5+E5+E9+E9+D4</f>
+        <v>59.483999999999995</v>
       </c>
       <c r="I6" t="s">
         <v>8</v>
@@ -676,19 +781,23 @@
         <v>56.295000000000002</v>
       </c>
       <c r="L6">
-        <f t="shared" ref="L6:N6" si="1">D5+D5+D5+D5+D5+D5+D5+D9+D9+D9+D4</f>
+        <f t="shared" ref="L6:N6" si="2">D5+D5+D5+D5+D5+D5+D5+D9+D9+D9+D4</f>
         <v>59.699999999999989</v>
       </c>
       <c r="M6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74.823999999999998</v>
       </c>
       <c r="N6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83.367999999999995</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>48.801000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
@@ -706,6 +815,13 @@
       </c>
       <c r="F7" s="9">
         <v>17.103000000000002</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <f>13*E5+E4</f>
+        <v>96.208000000000013</v>
       </c>
       <c r="I7" t="s">
         <v>9</v>
@@ -719,19 +835,23 @@
         <v>70.981999999999999</v>
       </c>
       <c r="L7">
-        <f t="shared" ref="L7:N7" si="2">14*D5+D4</f>
+        <f t="shared" ref="L7:N7" si="3">14*D5+D4</f>
         <v>74.257999999999996</v>
       </c>
       <c r="M7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>103.29400000000001</v>
       </c>
       <c r="N7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>116.39800000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>74.188999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
@@ -750,31 +870,42 @@
       <c r="F8" s="9">
         <v>5.3609999999999998</v>
       </c>
+      <c r="G8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <f>F5+F5+F10+F6+F6+F8+F8+F4+F4+F11+F9+E4+E4</f>
+        <v>82.125</v>
+      </c>
       <c r="I8" t="s">
         <v>10</v>
       </c>
       <c r="J8">
         <f>B5+B5+B10+B6+B6+B8+B8+B4+B4+B11+B9+B4+B4</f>
-        <v>57.641999999999996</v>
+        <v>63.003</v>
       </c>
       <c r="K8">
         <f>C5+C5+C10+C6+C6+C8+C8+C4+C4+C11+C9+C4+C4</f>
-        <v>62.915000000000006</v>
+        <v>69.168000000000006</v>
       </c>
       <c r="L8">
-        <f t="shared" ref="K8:N8" si="3">D5+D5+D10+D6+D6+D8+D8+D4+D4+D11+D9+D4+D4</f>
-        <v>64.440000000000012</v>
+        <f t="shared" ref="L8:N8" si="4">D5+D5+D10+D6+D6+D8+D8+D4+D4+D11+D9+D4+D4</f>
+        <v>71.282000000000011</v>
       </c>
       <c r="M8">
-        <f t="shared" si="3"/>
-        <v>69.725999999999999</v>
+        <f t="shared" si="4"/>
+        <v>76.77</v>
       </c>
       <c r="N8">
-        <f t="shared" si="3"/>
-        <v>74.134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>82.125</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>43.042999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
@@ -792,6 +923,13 @@
       </c>
       <c r="F9" s="9">
         <v>7.7080000000000002</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <f>7*E5+7*D4+D13+D4</f>
+        <v>117.84700000000001</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -801,23 +939,27 @@
         <v>9.4510000000000005</v>
       </c>
       <c r="K9">
-        <f t="shared" ref="K9:N9" si="4">L57*(C5+C4)+C7+C4</f>
+        <f t="shared" ref="K9:N9" si="5">L57*(C5+C4)+C7+C4</f>
         <v>12.714</v>
       </c>
       <c r="L9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13.141999999999999</v>
       </c>
       <c r="M9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17.064999999999998</v>
       </c>
       <c r="N9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21.193000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>88.172999999999988</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
@@ -836,41 +978,185 @@
       <c r="F10" s="9">
         <v>8.0220000000000002</v>
       </c>
+      <c r="G10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <f>F13+F13+F15+F6+F8+F4</f>
+        <v>682.05600000000004</v>
+      </c>
       <c r="I10" t="s">
         <v>12</v>
       </c>
-      <c r="J10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <f>B13+B13+B15+B6+B8+B4</f>
+        <v>27.683</v>
+      </c>
+      <c r="K10">
+        <f>C13+C13+C15+C6+C8+C4</f>
+        <v>72.362000000000009</v>
+      </c>
+      <c r="L10">
+        <f>D13+D13+D15+D6+D8+D4</f>
+        <v>125.72</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ref="K10:N10" si="6">E13+E13+E15+E6+E8+E4</f>
+        <v>265.60999999999996</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="6"/>
+        <v>682.05600000000004</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>49.071000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="2">
-        <v>0</v>
+        <v>5.3609999999999998</v>
       </c>
       <c r="C11" s="2">
-        <v>0</v>
+        <v>6.2530000000000001</v>
       </c>
       <c r="D11" s="2">
-        <v>0</v>
+        <v>6.8419999999999996</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>7.0439999999999996</v>
       </c>
       <c r="F11" s="3">
-        <v>0</v>
+        <v>7.9909999999999997</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <f>F12+F14+F15+F6+F8+F4</f>
+        <v>257.62399999999997</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
       </c>
+      <c r="J11">
+        <f>B14+B12+B15+B6+B8+B4</f>
+        <v>30.895</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ref="K11:N11" si="7">C14+C12+C15+C6+C8+C4</f>
+        <v>47.981999999999999</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="7"/>
+        <v>67.907999999999987</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="7"/>
+        <v>116.506</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="7"/>
+        <v>257.62399999999997</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>62.581000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>5.3609999999999998</v>
+      </c>
+      <c r="C12">
+        <v>5.9189999999999996</v>
+      </c>
+      <c r="D12">
+        <v>6.6180000000000003</v>
+      </c>
+      <c r="E12">
+        <v>7.0860000000000003</v>
+      </c>
+      <c r="F12">
+        <v>8.0220000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>3.7549999999999999</v>
+      </c>
+      <c r="C13">
+        <v>18.109000000000002</v>
+      </c>
+      <c r="D13">
+        <v>35.524999999999999</v>
+      </c>
+      <c r="E13">
+        <v>81.638999999999996</v>
+      </c>
+      <c r="F13">
+        <v>220.239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>5.3609999999999998</v>
+      </c>
+      <c r="C14">
+        <v>5.9189999999999996</v>
+      </c>
+      <c r="D14">
+        <v>6.62</v>
+      </c>
+      <c r="E14">
+        <v>7.0880000000000001</v>
+      </c>
+      <c r="F14">
+        <v>8.0239999999999991</v>
+      </c>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>5.3609999999999998</v>
+      </c>
+      <c r="C15">
+        <v>19.873000000000001</v>
+      </c>
+      <c r="D15">
+        <v>38.281999999999996</v>
+      </c>
+      <c r="E15">
+        <v>85.71</v>
+      </c>
+      <c r="F15">
+        <v>224.488</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:F2"/>
+    <mergeCell ref="I2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>